--- a/test_data/报表管理测试用例.xlsx
+++ b/test_data/报表管理测试用例.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12345"/>
-  </bookViews>
-  <sheets>
-    <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="dataSource_params" sheetId="2" r:id="rId2"/>
-    <sheet name="dataSource" sheetId="3" r:id="rId3"/>
-    <sheet name="Daily_params" sheetId="4" r:id="rId4"/>
-    <sheet name="DailyProfitAndLoss" sheetId="5" r:id="rId5"/>
-    <sheet name="Daily_params_t" sheetId="6" r:id="rId6"/>
-    <sheet name="Daily_total" sheetId="7" r:id="rId7"/>
-    <sheet name="Client_params" sheetId="8" r:id="rId8"/>
-    <sheet name="ClientProfitAndLoss" sheetId="9" r:id="rId9"/>
-    <sheet name="Client_params_t" sheetId="10" r:id="rId10"/>
-    <sheet name="Client_total" sheetId="11" r:id="rId11"/>
-    <sheet name="Client_params_d" sheetId="12" r:id="rId12"/>
-    <sheet name="Client_detail" sheetId="13" r:id="rId13"/>
-    <sheet name="sports_params" sheetId="14" r:id="rId14"/>
-    <sheet name="sportsProfitAndLoss" sheetId="15" r:id="rId15"/>
-    <sheet name="sports_params_t" sheetId="16" r:id="rId16"/>
-    <sheet name="sports_total" sheetId="17" r:id="rId17"/>
-    <sheet name="sports_params_d" sheetId="18" r:id="rId18"/>
-    <sheet name="sports_detail" sheetId="19" r:id="rId19"/>
-    <sheet name="com_params" sheetId="20" r:id="rId20"/>
-    <sheet name="com_ProfitAndLoss" sheetId="21" r:id="rId21"/>
-    <sheet name="com_params_t" sheetId="22" r:id="rId22"/>
-    <sheet name="commission_total" sheetId="23" r:id="rId23"/>
-  </sheets>
-  <calcPr calcId="144525"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="目录" sheetId="1" r:id="rId1"/>
+    <s:sheet name="dataSource_params" sheetId="2" r:id="rId2"/>
+    <s:sheet name="dataSource" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Daily_params" sheetId="4" r:id="rId4"/>
+    <s:sheet name="DailyProfitAndLoss" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Daily_params_t" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Daily_total" sheetId="7" r:id="rId7"/>
+    <s:sheet name="Client_params" sheetId="8" r:id="rId8"/>
+    <s:sheet name="ClientProfitAndLoss" sheetId="9" r:id="rId9"/>
+    <s:sheet name="Client_params_t" sheetId="10" r:id="rId10"/>
+    <s:sheet name="Client_total" sheetId="11" r:id="rId11"/>
+    <s:sheet name="Client_params_d" sheetId="12" r:id="rId12"/>
+    <s:sheet name="Client_detail" sheetId="13" r:id="rId13"/>
+    <s:sheet name="sports_params" sheetId="14" r:id="rId14"/>
+    <s:sheet name="sportsProfitAndLoss" sheetId="15" r:id="rId15"/>
+    <s:sheet name="sports_params_t" sheetId="16" r:id="rId16"/>
+    <s:sheet name="sports_total" sheetId="17" r:id="rId17"/>
+    <s:sheet name="sports_params_d" sheetId="18" r:id="rId18"/>
+    <s:sheet name="sports_detail" sheetId="19" r:id="rId19"/>
+    <s:sheet name="com_params" sheetId="20" r:id="rId20"/>
+    <s:sheet name="com_ProfitAndLoss" sheetId="21" r:id="rId21"/>
+    <s:sheet name="com_params_t" sheetId="22" r:id="rId22"/>
+    <s:sheet name="commission_total" sheetId="23" r:id="rId23"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>总台-报表管理</t>
   </si>
@@ -101,27 +101,7 @@
     <t>/backendReport/rebateReportList</t>
   </si>
   <si>
-    <r>
-      <t>佣金报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总计</t>
-    </r>
+    <t>佣金报表-总计</t>
   </si>
   <si>
     <t>/backendReport/totalRebateReport</t>
@@ -659,14 +639,14 @@
     <t>{"page":1,"limit":50,"terminal":"pc","startCreateTime":"2022-06-17","endCreateTime":"2022-06-23"}</t>
   </si>
   <si>
-    <t>[['2022-06-22', '1', '5', 2332.0, 209.14, -41.85, -0.09, -41.94], ['2022-06-21', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-06-20', '0', '0', 0.0, 770.0, 154.0, -0.33, 153.67], ['2022-06-19', '0', '0', 0.0, 200.0, 40.0, 0.0, 40.0], ['2022-06-18', '0', '0', 0.0, 973.0, 194.6, 0.0, 194.6], ['2022-06-17', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-06-16', '0', '0', 0.0, 1443.0, 288.6, -0.1, 288.5]]</t>
-  </si>
-  <si>
-    <t>[['2022-06-22', 1, 5, Decimal('2332.00'), Decimal('209.14'), Decimal('-41.85'), Decimal('-0.09'), Decimal('-41.94')], ['2022-06-21', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-06-20', 0, 0, Decimal('0.00'), Decimal('770.00'), Decimal('154.00'), Decimal('-0.33'), Decimal('153.67')], ['2022-06-19', 0, 0, Decimal('0.00'), Decimal('200.00'), Decimal('40.00'), Decimal('0.00'), Decimal('40.00')], ['2022-06-18', 0, 0, Decimal('0.00'), Decimal('973.00'), Decimal('194.60'), Decimal('0.00'), Decimal('194.60')], ['2022-06-17', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-06-16', 0, 0, Decimal('0.00'), Decimal('1443.00'), Decimal('288.60'), Decimal('-0.10'), Decimal('288.50')]]</t>
+    <t>[['2022-07-10', '1', '12', 120.0, 30.0, 6.0, -0.01, 5.99], ['2022-07-09', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-07-08', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-07-07', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-07-06', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-07-05', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0], ['2022-07-04', '0', '0', 0.0, 0.0, 0.0, 0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>[['2022-07-10', 1, 12, Decimal('120.00'), Decimal('30.00'), Decimal('6.00'), Decimal('-0.01'), Decimal('5.99')], ['2022-07-09', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-07-08', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-07-07', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-07-06', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-07-05', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')], ['2022-07-04', 0, 0, Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00'), Decimal('0.00')]]</t>
   </si>
   <si>
     <t>测试通过 
-2022-06-23 18:29:34</t>
+2022-07-11 19:42:51</t>
   </si>
   <si>
     <t>默认查询近7日球类盈亏数据</t>
@@ -1065,254 +1045,272 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="14"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1617,253 +1615,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf fontId="0" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="1" xfId="0" numFmtId="0" fillId="2" borderId="0"/>
+    <xf fontId="2" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="3" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="4" xfId="0" numFmtId="0" fillId="2" borderId="0"/>
+    <xf fontId="5" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="2" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="6" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="6" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="7" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="6" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="8" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="10" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="11" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="12" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="13" xfId="10" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="14" xfId="10" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="13" xfId="10" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="14" xfId="10" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="10" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="5" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="13" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="14" xfId="0" numFmtId="0" fillId="0" borderId="0"/>
+    <xf fontId="13" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="14" xfId="0" numFmtId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2123,26 +1933,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col width="24.25" customWidth="1" min="1" max="1"/>
+    <col width="42.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +1970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2166,15 +1978,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2182,176 +1994,176 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:2">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:2">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:1">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:1">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:1">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:1">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" spans="1:1">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:1">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" spans="1:1">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" spans="1:1">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" spans="1:1">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" spans="1:1">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1" spans="1:1">
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2360,38 +2172,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B7" location="ClientProfitAndLoss!A1" display="/backendReport/queryClientProfitAndLossList"/>
-    <hyperlink ref="B8" location="Client_total!A1" display="/backendReport/totalDailyProfitAndLoss"/>
-    <hyperlink ref="B9" location="Client_detail!A1" display="/backendReport/queryDailyProfitAndLossList"/>
-    <hyperlink ref="B10" location="sportsProfitAndLoss!A1" display="/backendReport/sportsProfitAndLossList"/>
-    <hyperlink ref="B11" location="sports_total!A1" display="/backendReport/totalDailyProfitAndLoss"/>
-    <hyperlink ref="B12" location="sports_detail!A1" display="/backendReport/queryDailyProfitAndLossList"/>
-    <hyperlink ref="B13" location="com_ProfitAndLoss!A1" display="/backendReport/rebateReportList"/>
-    <hyperlink ref="B14" location="commission_total!A1" display="/backendReport/totalRebateReport"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="69" customWidth="1"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="34.25" customWidth="1" min="3" max="3"/>
+    <col width="69" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -2414,60 +2218,60 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="7">
+    <row r="4" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2476,35 +2280,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -2550,11 +2355,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2596,28 +2401,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="65" customWidth="1" min="3" max="3"/>
+    <col width="16.375" customWidth="1" min="6" max="6"/>
+    <col width="13.25" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -2640,20 +2447,20 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -2663,20 +2470,20 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2686,20 +2493,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2709,20 +2516,20 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2732,20 +2539,20 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2757,35 +2564,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -2831,11 +2639,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2877,30 +2685,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="61" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15.5" customWidth="1" min="2" max="2"/>
+    <col width="19.875" customWidth="1" min="3" max="3"/>
+    <col width="14.125" customWidth="1" min="4" max="4"/>
+    <col width="61" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -2926,11 +2735,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2942,21 +2751,21 @@
       <c r="E2" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2968,21 +2777,21 @@
       <c r="E3" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2994,21 +2803,21 @@
       <c r="E4" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3020,21 +2829,21 @@
       <c r="E5" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -3046,21 +2855,21 @@
       <c r="E6" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3072,21 +2881,21 @@
       <c r="E7" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3098,21 +2907,21 @@
       <c r="E8" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3124,21 +2933,21 @@
       <c r="E9" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3150,21 +2959,21 @@
       <c r="E10" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3176,21 +2985,21 @@
       <c r="E11" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3202,21 +3011,21 @@
       <c r="E12" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3228,21 +3037,21 @@
       <c r="E13" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3254,21 +3063,21 @@
       <c r="E14" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3280,21 +3089,21 @@
       <c r="E15" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:8">
-      <c r="A16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3306,21 +3115,21 @@
       <c r="E16" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3332,21 +3141,21 @@
       <c r="E17" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B18" s="7">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3358,10 +3167,10 @@
       <c r="E18" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -3370,35 +3179,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -3444,11 +3254,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3475,36 +3285,37 @@
       <c r="I2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="9" t="n"/>
       <c r="M2" s="7" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17.5" customWidth="1" min="2" max="2"/>
+    <col width="36.5" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -3521,88 +3332,89 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:5" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="E3" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="7">
+      <c r="E3" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="7" t="n">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -3648,11 +3460,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3694,28 +3506,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="15.75" customWidth="1" min="1" max="2"/>
+    <col width="65" customWidth="1" min="3" max="3"/>
+    <col width="16.375" customWidth="1" min="6" max="6"/>
+    <col width="13.25" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -3738,20 +3552,20 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -3761,20 +3575,20 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -3784,20 +3598,20 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:7" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3807,20 +3621,20 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -3830,20 +3644,20 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -3853,20 +3667,20 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -3876,20 +3690,20 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3899,20 +3713,20 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -3924,35 +3738,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -3998,11 +3813,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4044,33 +3859,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col width="17.875" customWidth="1" min="1" max="3"/>
+    <col width="17.875" customWidth="1" min="1" max="3"/>
+    <col width="17.875" customWidth="1" min="1" max="3"/>
+    <col width="17.375" customWidth="1" min="4" max="4"/>
+    <col width="37.125" customWidth="1" min="5" max="5"/>
+    <col width="10.125" customWidth="1" min="6" max="6"/>
+    <col width="13.75" customWidth="1" min="7" max="7"/>
+    <col width="11.875" customWidth="1" min="8" max="8"/>
+    <col width="11.75" customWidth="1" min="9" max="9"/>
+    <col width="12.75" customWidth="1" min="10" max="10"/>
+    <col width="14.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -4108,17 +3926,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A2" s="11">
+    <row r="2" spans="1:12" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="11" t="n">
         <v>-30</v>
       </c>
-      <c r="B2" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>-30</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="11" t="n">
         <v>-1</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4145,30 +3963,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="63.125" customWidth="1"/>
-    <col min="8" max="8" width="44" customWidth="1"/>
+    <col width="15.5" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="22.375" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="63.125" customWidth="1" min="5" max="5"/>
+    <col width="44" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -4194,11 +4013,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4210,21 +4029,21 @@
       <c r="E2" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4236,21 +4055,21 @@
       <c r="E3" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4262,21 +4081,21 @@
       <c r="E4" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4288,21 +4107,21 @@
       <c r="E5" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4314,21 +4133,21 @@
       <c r="E6" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4340,21 +4159,21 @@
       <c r="E7" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4366,21 +4185,21 @@
       <c r="E8" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4392,21 +4211,21 @@
       <c r="E9" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4418,21 +4237,21 @@
       <c r="E10" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4444,21 +4263,21 @@
       <c r="E11" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4470,21 +4289,21 @@
       <c r="E12" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4496,21 +4315,21 @@
       <c r="E13" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="F13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4522,21 +4341,21 @@
       <c r="E14" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4548,21 +4367,21 @@
       <c r="E15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:8">
-      <c r="A16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -4574,21 +4393,21 @@
       <c r="E16" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4600,21 +4419,21 @@
       <c r="E17" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B18" s="7">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -4626,21 +4445,21 @@
       <c r="E18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:8">
-      <c r="A19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="A19" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B19" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -4652,21 +4471,21 @@
       <c r="E19" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G19" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:8">
-      <c r="A20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4678,21 +4497,21 @@
       <c r="E20" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="F20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G20" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:8">
-      <c r="A21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
+      <c r="A21" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -4704,21 +4523,21 @@
       <c r="E21" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G21" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:8">
-      <c r="A22" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4730,21 +4549,21 @@
       <c r="E22" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G22" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B23" s="7">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="A23" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4756,21 +4575,21 @@
       <c r="E23" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="F23" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G23" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:8">
-      <c r="A24" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B24" s="7">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
+      <c r="A24" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4782,21 +4601,21 @@
       <c r="E24" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F24" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G24" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:8">
-      <c r="A25" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B25" s="7">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B25" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4808,21 +4627,21 @@
       <c r="E25" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G25" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:8">
-      <c r="A26" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -4834,21 +4653,21 @@
       <c r="E26" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F26" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G26" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:8">
-      <c r="A27" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B27" s="7">
+    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="A27" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -4860,21 +4679,21 @@
       <c r="E27" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F27" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G27" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:8">
-      <c r="A28" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B28" s="7">
+    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="A28" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4886,21 +4705,21 @@
       <c r="E28" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F28" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G28" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:8">
-      <c r="A29" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B29" s="7">
+    <row r="29" spans="1:8" ht="15" customHeight="1">
+      <c r="A29" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -4912,21 +4731,21 @@
       <c r="E29" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F29" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G29" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:8">
-      <c r="A30" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="A30" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B30" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -4938,10 +4757,10 @@
       <c r="E30" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="F30" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G30" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -4950,35 +4769,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H19:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -5024,11 +4844,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5070,27 +4890,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="15.5" customWidth="1" min="2" max="2"/>
+    <col width="31.5" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -5106,93 +4927,94 @@
       <c r="E1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="F1" s="7" t="n"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="7" t="n"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="E3" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="7">
+      <c r="E3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="E4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -5238,11 +5060,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5284,35 +5106,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -5358,11 +5181,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5389,40 +5212,41 @@
       <c r="I2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="9" t="n"/>
       <c r="M2" s="7" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="58.75" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="38.625" customWidth="1"/>
+    <col width="16.125" customWidth="1" min="1" max="1"/>
+    <col width="15.875" customWidth="1" min="2" max="2"/>
+    <col width="20.75" customWidth="1" min="3" max="3"/>
+    <col width="15.875" customWidth="1" min="4" max="4"/>
+    <col width="58.75" customWidth="1" min="5" max="5"/>
+    <col width="8.75" customWidth="1" min="6" max="6"/>
+    <col width="38.625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -5448,11 +5272,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5464,21 +5288,21 @@
       <c r="E2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -5490,21 +5314,21 @@
       <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5516,21 +5340,21 @@
       <c r="E4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5542,21 +5366,21 @@
       <c r="E5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -5568,21 +5392,21 @@
       <c r="E6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5594,21 +5418,21 @@
       <c r="E7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -5620,21 +5444,21 @@
       <c r="E8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -5646,21 +5470,21 @@
       <c r="E9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -5672,21 +5496,21 @@
       <c r="E10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -5698,21 +5522,21 @@
       <c r="E11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5724,21 +5548,21 @@
       <c r="E12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -5750,21 +5574,21 @@
       <c r="E13" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B14" s="7">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -5776,21 +5600,21 @@
       <c r="E14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B15" s="7">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5802,21 +5626,21 @@
       <c r="E15" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:8">
-      <c r="A16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B16" s="7">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -5828,21 +5652,21 @@
       <c r="E16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5854,21 +5678,21 @@
       <c r="E17" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B18" s="7">
+    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5880,10 +5704,10 @@
       <c r="E18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -5892,35 +5716,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -5966,11 +5791,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6012,27 +5837,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="15.5" customWidth="1" min="2" max="2"/>
+    <col width="31.5" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -6048,93 +5874,94 @@
       <c r="E1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="F1" s="7" t="n"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="7">
+      <c r="D2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="7" t="n"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="E3" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="7">
+      <c r="E3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="E4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -6180,11 +6007,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6226,33 +6053,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="58.75" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="38.625" customWidth="1"/>
-    <col min="9" max="9" width="70" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col width="16.125" customWidth="1" min="1" max="1"/>
+    <col width="15.875" customWidth="1" min="2" max="2"/>
+    <col width="20.75" customWidth="1" min="3" max="3"/>
+    <col width="15.875" customWidth="1" min="4" max="4"/>
+    <col width="58.75" customWidth="1" min="5" max="5"/>
+    <col width="8.75" customWidth="1" min="6" max="6"/>
+    <col width="38.625" customWidth="1" min="8" max="8"/>
+    <col width="70" customWidth="1" min="9" max="9"/>
+    <col width="12.375" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -6284,11 +6112,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6300,10 +6128,10 @@
       <c r="E2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -6313,11 +6141,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row r="3" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -6329,10 +6157,10 @@
       <c r="E3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>-15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -6342,11 +6170,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -6358,10 +6186,10 @@
       <c r="E4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>-30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -6371,11 +6199,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:10">
-      <c r="A5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -6387,10 +6215,10 @@
       <c r="E5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G5" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -6399,13 +6227,13 @@
       <c r="I5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:10">
-      <c r="A6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="J5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -6417,10 +6245,10 @@
       <c r="E6" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -6429,13 +6257,13 @@
       <c r="I6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="J6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -6447,10 +6275,10 @@
       <c r="E7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -6459,13 +6287,13 @@
       <c r="I7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:10">
-      <c r="A8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="J7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -6477,10 +6305,10 @@
       <c r="E8" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G8" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -6489,13 +6317,13 @@
       <c r="I8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="J8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -6507,10 +6335,10 @@
       <c r="E9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G9" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -6519,13 +6347,13 @@
       <c r="I9" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:10">
-      <c r="A10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="J9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -6537,10 +6365,10 @@
       <c r="E10" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -6549,13 +6377,13 @@
       <c r="I10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:10">
-      <c r="A11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="J10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -6567,10 +6395,10 @@
       <c r="E11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G11" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -6579,13 +6407,13 @@
       <c r="I11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:10">
-      <c r="A12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="J11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -6597,10 +6425,10 @@
       <c r="E12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G12" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -6609,13 +6437,13 @@
       <c r="I12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:10">
-      <c r="A13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="J12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -6627,10 +6455,10 @@
       <c r="E13" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G13" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -6639,13 +6467,13 @@
       <c r="I13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:10">
-      <c r="A14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="J13" s="3" t="n"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -6657,10 +6485,10 @@
       <c r="E14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G14" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -6669,13 +6497,13 @@
       <c r="I14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:10">
-      <c r="A15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="J14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
+      <c r="A15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -6687,10 +6515,10 @@
       <c r="E15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G15" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -6699,13 +6527,13 @@
       <c r="I15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:10">
-      <c r="A16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="J15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
+      <c r="A16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -6717,10 +6545,10 @@
       <c r="E16" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G16" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -6729,13 +6557,13 @@
       <c r="I16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:10">
-      <c r="A17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="J16" s="3" t="n"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -6747,10 +6575,10 @@
       <c r="E17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G17" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -6759,13 +6587,13 @@
       <c r="I17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:10">
-      <c r="A18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="J17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -6777,10 +6605,10 @@
       <c r="E18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -6789,13 +6617,13 @@
       <c r="I18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="J18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A19" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B19" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -6807,10 +6635,10 @@
       <c r="E19" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G19" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -6823,11 +6651,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="20" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A20" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B20" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -6839,10 +6667,10 @@
       <c r="E20" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="F20" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G20" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -6855,11 +6683,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="21" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A21" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -6871,10 +6699,10 @@
       <c r="E21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G21" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -6887,11 +6715,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A22" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="22" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A22" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -6903,10 +6731,10 @@
       <c r="E22" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G22" s="7">
+      <c r="F22" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G22" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -6919,11 +6747,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A23" s="7">
-        <v>-7</v>
-      </c>
-      <c r="B23" s="7">
+    <row r="23" spans="1:10" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A23" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -6935,10 +6763,10 @@
       <c r="E23" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="7">
-        <v>-7</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G23" s="7" t="n">
         <v>-1</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -6953,35 +6781,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+    <col width="10.375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.875" customWidth="1" style="3" min="2" max="2"/>
+    <col width="12.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="10.75" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.25" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="45.25" customWidth="1" style="3" min="8" max="8"/>
+    <col width="31.875" customWidth="1" style="3" min="9" max="9"/>
+    <col width="11.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="10.375" customWidth="1" style="3" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="18.75" customFormat="1" customHeight="1" s="1">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -7027,11 +6856,11 @@
       <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:17" ht="96" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -7073,6 +6902,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>